--- a/excel_with_subclasses/with_count/still_waters_with_count.xlsx
+++ b/excel_with_subclasses/with_count/still_waters_with_count.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,72 +440,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q5926864</t>
+          <t>Q303874</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>группа озёр</t>
+          <t>сардоба</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q838858_Цистерна</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q303874</t>
+          <t>Q838858</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>сардоба</t>
+          <t>Цистерна</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
+          <t>Q2551525_водный резервуар</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>433</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q838858</t>
+          <t>Q2551525</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Цистерна</t>
+          <t>водный резервуар</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q2551525_водный резервуар</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q2551525</t>
+          <t>Q932689</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>водный резервуар</t>
+          <t>поильник</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -514,43 +514,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q932689</t>
+          <t>Q14723701</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>поильник</t>
+          <t>aljibe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q838858_Цистерна</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q14723701</t>
+          <t>Q6501028</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>aljibe</t>
+          <t>water tank</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
+          <t>Q2551525_водный резервуар</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -560,12 +560,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q6501028</t>
+          <t>Q208791</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>water tank</t>
+          <t>водоносный горизонт</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -574,58 +574,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q208791</t>
+          <t>Q93429857</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>водоносный горизонт</t>
+          <t>ancient Roman cistern</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q2551525_водный резервуар</t>
+          <t>Q838858_Цистерна</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q93429857</t>
+          <t>Q291099</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ancient Roman cistern</t>
+          <t>Stream pool</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
+          <t>Q3177968_пруд</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q291099</t>
+          <t>Q85842470</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Stream pool</t>
+          <t>искусственный пруд</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -634,83 +634,83 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q85842470</t>
+          <t>Q152841</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>искусственный пруд</t>
+          <t>Лужа</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q3177968_пруд</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q152841</t>
+          <t>Q1621678</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Лужа</t>
+          <t>elevated tank</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q6501028_water tank</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q1621678</t>
+          <t>Q735881</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>elevated tank</t>
+          <t>bog pond</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q6501028_water tank</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q735881</t>
+          <t>Q28858478</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bog pond</t>
+          <t>watering trough</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q6501028_water tank</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -740,52 +740,52 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q28858478</t>
+          <t>Q177734</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>watering trough</t>
+          <t>артезианские воды</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q6501028_water tank</t>
+          <t>Q208791_водоносный горизонт</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q177734</t>
+          <t>Q2550985</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>артезианские воды</t>
+          <t>водная поверхность</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q208791_водоносный горизонт</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q2550985</t>
+          <t>Q61861051</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>водная поверхность</t>
+          <t>laguna</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -794,23 +794,23 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q61861051</t>
+          <t>Q1234707</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>laguna</t>
+          <t>heathland pond</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q16710063_oligotrophic lake</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -820,77 +820,77 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q1234707</t>
+          <t>Q583075</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>heathland pond</t>
+          <t>уровень грунтовых вод</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q16710063_oligotrophic lake</t>
+          <t>Q208791_водоносный горизонт</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q583075</t>
+          <t>Q448531</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>уровень грунтовых вод</t>
+          <t>Alvarsee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q208791_водоносный горизонт</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q25498657</t>
+          <t>Q12829481</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>group of interconnected lakes</t>
+          <t>Ovdan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q5926864_группа озёр</t>
+          <t>Q838858_Цистерна</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q448531</t>
+          <t>Q7198250</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Alvarsee</t>
+          <t>Piscina Publica</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q93429857_ancient Roman cistern</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -900,17 +900,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q12829481</t>
+          <t>Q28659441</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ovdan</t>
+          <t>rain barrel</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
+          <t>Q14552508_rainwater tank</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -920,17 +920,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q28659441</t>
+          <t>Q7646113</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rain barrel</t>
+          <t>Surficial aquifer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q14552508_rainwater tank</t>
+          <t>Q208791_водоносный горизонт</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -940,17 +940,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q7198250</t>
+          <t>Q18379141</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Piscina Publica</t>
+          <t>Sole Source Aquifer</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q93429857_ancient Roman cistern</t>
+          <t>Q208791_водоносный горизонт</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -960,17 +960,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q7646113</t>
+          <t>Q16069438</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Surficial aquifer</t>
+          <t>berkad</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q208791_водоносный горизонт</t>
+          <t>Q2551525_водный резервуар</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -980,12 +980,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q18379141</t>
+          <t>Q1479708</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sole Source Aquifer</t>
+          <t>Вадозная зона</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1000,17 +1000,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q16069438</t>
+          <t>Q14552508</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>berkad</t>
+          <t>rainwater tank</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q2551525_водный резервуар</t>
+          <t>Q6501028_water tank</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1020,60 +1020,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q1479708</t>
+          <t>Q96091671</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Вадозная зона</t>
+          <t>water jar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q208791_водоносный горизонт</t>
+          <t>Q6501028_water tank</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Q14552508</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>rainwater tank</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Q6501028_water tank</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Q96091671</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>water jar</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Q6501028_water tank</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
